--- a/Moricandia_BIOMASA_bueno.xlsx
+++ b/Moricandia_BIOMASA_bueno.xlsx
@@ -536,7 +536,7 @@
     <col min="7" max="7" width="4" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" style="8" customWidth="1"/>
     <col min="12" max="12" width="12.140625" style="2" customWidth="1"/>
   </cols>

--- a/Moricandia_BIOMASA_bueno.xlsx
+++ b/Moricandia_BIOMASA_bueno.xlsx
@@ -228,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -240,6 +240,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,7 +524,7 @@
   <dimension ref="A1:M1281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +539,8 @@
     <col min="9" max="9" width="20.42578125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -617,6 +619,7 @@
         <f>K2*1000</f>
         <v>0</v>
       </c>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -734,7 +737,6 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
